--- a/data/raw/raw data_sauter mean diameter.xlsx
+++ b/data/raw/raw data_sauter mean diameter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xc6383\Documents\Tauschordner\Frank\ATPF Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BC63B4-D1AE-4988-8A78-9552AB207FCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD36ED4-8040-4A14-A311-7D6BA39204A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7770" xr2:uid="{92F375DA-8A46-4767-AAAB-8E9AB2A1F6EC}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C4" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,13 +459,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="C4" s="1">
-        <v>281</v>
+        <v>342.23153000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>342.23153000000002</v>
+        <v>658.48512000000005</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,39 +473,37 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
-        <v>309</v>
+        <v>381.40341999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>381.40341999999998</v>
+        <v>684.92084999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>430.56871999999998</v>
       </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>20</v>
+        <v>390.63463999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>390.63463999999999</v>
+        <v>474.86982</v>
       </c>
       <c r="D7" s="1">
-        <v>474.86982</v>
+        <v>703.04699000000005</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -513,13 +511,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
+        <v>435</v>
       </c>
       <c r="C8" s="1">
-        <v>435</v>
+        <v>505.67327</v>
       </c>
       <c r="D8" s="1">
-        <v>505.67327</v>
+        <v>856.24132999999995</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,13 +525,13 @@
         <v>40</v>
       </c>
       <c r="B9" s="1">
-        <v>40</v>
+        <v>455.45229</v>
       </c>
       <c r="C9" s="1">
-        <v>455.45229</v>
+        <v>545.32973000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>545.32973000000004</v>
+        <v>892.34965</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -541,13 +539,13 @@
         <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>50</v>
+        <v>445.22257999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>445.22257999999999</v>
+        <v>556.18858</v>
       </c>
       <c r="D10" s="1">
-        <v>556.18858</v>
+        <v>934.81870000000004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,13 +553,13 @@
         <v>70</v>
       </c>
       <c r="B11" s="1">
-        <v>70</v>
+        <v>469.60834</v>
       </c>
       <c r="C11" s="1">
-        <v>469.60834</v>
+        <v>556.19731999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>556.19731999999999</v>
+        <v>1044.7151100000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,13 +567,13 @@
         <v>100</v>
       </c>
       <c r="B12" s="1">
-        <v>100</v>
+        <v>484.21632</v>
       </c>
       <c r="C12" s="1">
-        <v>484.21632</v>
+        <v>542.29616999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>542.29616999999996</v>
+        <v>1051.17065</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -583,13 +581,13 @@
         <v>150</v>
       </c>
       <c r="B13" s="1">
-        <v>150</v>
+        <v>536</v>
       </c>
       <c r="C13" s="1">
-        <v>536</v>
+        <v>642.42085999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>642.42085999999995</v>
+        <v>1030.66527</v>
       </c>
     </row>
   </sheetData>
